--- a/data/134/DEUSTATIS/New orders in manufacturing (value index) - 1991.xlsx
+++ b/data/134/DEUSTATIS/New orders in manufacturing (value index) - 1991.xlsx
@@ -168,7 +168,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:51:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:26:58</t>
   </si>
 </sst>
 </file>
@@ -85457,7 +85457,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:51:30&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:27:08&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>